--- a/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,233 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
         <v>54</v>
       </c>
     </row>
@@ -469,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +715,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>54</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,14 +674,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B30" t="n">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -693,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,14 +769,6 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -701,7 +702,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,551 @@
       </c>
       <c r="B9" t="n">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42.60468097152076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158.4779961404936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>42.80789384183405</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157.1098338968943</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.64753981182123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>154.1885103939358</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>94</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37.73407173647633</v>
+      </c>
+      <c r="D5" t="n">
+        <v>153.0228975369994</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.52478693946361</v>
+      </c>
+      <c r="D6" t="n">
+        <v>145.766340539953</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26.23362395462122</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150.4849769196296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>86</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.53143879393068</v>
+      </c>
+      <c r="D8" t="n">
+        <v>146.154449655493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.82255424141303</v>
+      </c>
+      <c r="D9" t="n">
+        <v>143.337497498818</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.09984959329807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>142.0464453630807</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.68249916409069</v>
+      </c>
+      <c r="D11" t="n">
+        <v>136.2608899453421</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.58430827177134</v>
+      </c>
+      <c r="D12" t="n">
+        <v>133.7134768300588</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.55016243827772</v>
+      </c>
+      <c r="D13" t="n">
+        <v>129.3992918696584</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.08110087230729</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.8968809333313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>63</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.583497650285437</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123.9686836684358</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.460309645124944</v>
+      </c>
+      <c r="D16" t="n">
+        <v>119.3355694610427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3308281052358593</v>
+      </c>
+      <c r="D17" t="n">
+        <v>116.4636081144845</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.72333993023717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>113.8515147960396</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>53</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.724849222316562</v>
+      </c>
+      <c r="D19" t="n">
+        <v>115.9760234877345</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-10.03422330623467</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112.6497233729906</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>49</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-13.37763723821949</v>
+      </c>
+      <c r="D21" t="n">
+        <v>109.6162704118612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.08343583187461</v>
+      </c>
+      <c r="D22" t="n">
+        <v>108.2449595973598</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-12.59207141039837</v>
+      </c>
+      <c r="D23" t="n">
+        <v>99.95308941793263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.21799218201941</v>
+      </c>
+      <c r="D24" t="n">
+        <v>100.2114419316825</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-15.04690889891358</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100.5938892359681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-23.0475801665318</v>
+      </c>
+      <c r="D26" t="n">
+        <v>94.43933482846211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-20.57674117417246</v>
+      </c>
+      <c r="D27" t="n">
+        <v>97.12809072035228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-24.57282818876186</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96.27685229721028</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-28.08913474710234</v>
+      </c>
+      <c r="D29" t="n">
+        <v>98.1229220518801</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-31.26414264606728</v>
+      </c>
+      <c r="D30" t="n">
+        <v>90.24965721582917</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-27.16659494677742</v>
+      </c>
+      <c r="D31" t="n">
+        <v>89.6399891694012</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-31.77957174469023</v>
+      </c>
+      <c r="D32" t="n">
+        <v>88.41484389982149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-38.92038228546719</v>
+      </c>
+      <c r="D33" t="n">
+        <v>81.54965655452706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-30.50381623177162</v>
+      </c>
+      <c r="D34" t="n">
+        <v>79.93548315570959</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-37.19018177201698</v>
+      </c>
+      <c r="D35" t="n">
+        <v>78.65454221357284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-40.79036612730513</v>
+      </c>
+      <c r="D36" t="n">
+        <v>79.17952954098898</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-48.52972939364304</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76.6260200159046</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6G92RX_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
-        <v>42.60468097152076</v>
-      </c>
-      <c r="D2" t="n">
-        <v>158.4779961404936</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>98</v>
       </c>
-      <c r="C3" t="n">
-        <v>42.80789384183405</v>
-      </c>
-      <c r="D3" t="n">
-        <v>157.1098338968943</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>96</v>
       </c>
-      <c r="C4" t="n">
-        <v>38.64753981182123</v>
-      </c>
-      <c r="D4" t="n">
-        <v>154.1885103939358</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>94</v>
       </c>
-      <c r="C5" t="n">
-        <v>37.73407173647633</v>
-      </c>
-      <c r="D5" t="n">
-        <v>153.0228975369994</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>90</v>
       </c>
-      <c r="C6" t="n">
-        <v>26.52478693946361</v>
-      </c>
-      <c r="D6" t="n">
-        <v>145.766340539953</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>88</v>
       </c>
-      <c r="C7" t="n">
-        <v>26.23362395462122</v>
-      </c>
-      <c r="D7" t="n">
-        <v>150.4849769196296</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>86</v>
       </c>
-      <c r="C8" t="n">
-        <v>24.53143879393068</v>
-      </c>
-      <c r="D8" t="n">
-        <v>146.154449655493</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>84</v>
       </c>
-      <c r="C9" t="n">
-        <v>21.82255424141303</v>
-      </c>
-      <c r="D9" t="n">
-        <v>143.337497498818</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>82</v>
       </c>
-      <c r="C10" t="n">
-        <v>28.09984959329807</v>
-      </c>
-      <c r="D10" t="n">
-        <v>142.0464453630807</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>78</v>
       </c>
-      <c r="C11" t="n">
-        <v>14.68249916409069</v>
-      </c>
-      <c r="D11" t="n">
-        <v>136.2608899453421</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
-        <v>17.58430827177134</v>
-      </c>
-      <c r="D12" t="n">
-        <v>133.7134768300588</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>69</v>
       </c>
-      <c r="C13" t="n">
-        <v>11.55016243827772</v>
-      </c>
-      <c r="D13" t="n">
-        <v>129.3992918696584</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>67</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.08110087230729</v>
-      </c>
-      <c r="D14" t="n">
-        <v>127.8968809333313</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>63</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.583497650285437</v>
-      </c>
-      <c r="D15" t="n">
-        <v>123.9686836684358</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>61</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.460309645124944</v>
-      </c>
-      <c r="D16" t="n">
-        <v>119.3355694610427</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>57</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.3308281052358593</v>
-      </c>
-      <c r="D17" t="n">
-        <v>116.4636081144845</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>55</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.72333993023717</v>
-      </c>
-      <c r="D18" t="n">
-        <v>113.8515147960396</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>53</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.724849222316562</v>
-      </c>
-      <c r="D19" t="n">
-        <v>115.9760234877345</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>51</v>
       </c>
-      <c r="C20" t="n">
-        <v>-10.03422330623467</v>
-      </c>
-      <c r="D20" t="n">
-        <v>112.6497233729906</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>49</v>
       </c>
-      <c r="C21" t="n">
-        <v>-13.37763723821949</v>
-      </c>
-      <c r="D21" t="n">
-        <v>109.6162704118612</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>47</v>
       </c>
-      <c r="C22" t="n">
-        <v>-10.08343583187461</v>
-      </c>
-      <c r="D22" t="n">
-        <v>108.2449595973598</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>45</v>
       </c>
-      <c r="C23" t="n">
-        <v>-12.59207141039837</v>
-      </c>
-      <c r="D23" t="n">
-        <v>99.95308941793263</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>43</v>
       </c>
-      <c r="C24" t="n">
-        <v>-16.21799218201941</v>
-      </c>
-      <c r="D24" t="n">
-        <v>100.2114419316825</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>41</v>
       </c>
-      <c r="C25" t="n">
-        <v>-15.04690889891358</v>
-      </c>
-      <c r="D25" t="n">
-        <v>100.5938892359681</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>39</v>
       </c>
-      <c r="C26" t="n">
-        <v>-23.0475801665318</v>
-      </c>
-      <c r="D26" t="n">
-        <v>94.43933482846211</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>36</v>
       </c>
-      <c r="C27" t="n">
-        <v>-20.57674117417246</v>
-      </c>
-      <c r="D27" t="n">
-        <v>97.12809072035228</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>34</v>
       </c>
-      <c r="C28" t="n">
-        <v>-24.57282818876186</v>
-      </c>
-      <c r="D28" t="n">
-        <v>96.27685229721028</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>32</v>
       </c>
-      <c r="C29" t="n">
-        <v>-28.08913474710234</v>
-      </c>
-      <c r="D29" t="n">
-        <v>98.1229220518801</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>30</v>
       </c>
-      <c r="C30" t="n">
-        <v>-31.26414264606728</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90.24965721582917</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1224,12 +1040,6 @@
       <c r="B31" t="n">
         <v>28</v>
       </c>
-      <c r="C31" t="n">
-        <v>-27.16659494677742</v>
-      </c>
-      <c r="D31" t="n">
-        <v>89.6399891694012</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1238,12 +1048,6 @@
       <c r="B32" t="n">
         <v>26</v>
       </c>
-      <c r="C32" t="n">
-        <v>-31.77957174469023</v>
-      </c>
-      <c r="D32" t="n">
-        <v>88.41484389982149</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1252,12 +1056,6 @@
       <c r="B33" t="n">
         <v>24</v>
       </c>
-      <c r="C33" t="n">
-        <v>-38.92038228546719</v>
-      </c>
-      <c r="D33" t="n">
-        <v>81.54965655452706</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1266,12 +1064,6 @@
       <c r="B34" t="n">
         <v>22</v>
       </c>
-      <c r="C34" t="n">
-        <v>-30.50381623177162</v>
-      </c>
-      <c r="D34" t="n">
-        <v>79.93548315570959</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1280,12 +1072,6 @@
       <c r="B35" t="n">
         <v>20</v>
       </c>
-      <c r="C35" t="n">
-        <v>-37.19018177201698</v>
-      </c>
-      <c r="D35" t="n">
-        <v>78.65454221357284</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1294,12 +1080,6 @@
       <c r="B36" t="n">
         <v>18</v>
       </c>
-      <c r="C36" t="n">
-        <v>-40.79036612730513</v>
-      </c>
-      <c r="D36" t="n">
-        <v>79.17952954098898</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1307,12 +1087,6 @@
       </c>
       <c r="B37" t="n">
         <v>16</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-48.52972939364304</v>
-      </c>
-      <c r="D37" t="n">
-        <v>76.6260200159046</v>
       </c>
     </row>
   </sheetData>
